--- a/Data/Excels/ARAP_TwoPoints.xlsx
+++ b/Data/Excels/ARAP_TwoPoints.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S160"/>
+  <dimension ref="A1:S184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11236,7 +11236,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -11261,12 +11261,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1,70</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -11306,17 +11306,17 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>18,16</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>21,88</t>
         </is>
       </c>
       <c r="R125" t="inlineStr"/>
@@ -11325,7 +11325,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -11350,17 +11350,17 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>1,80e-03</t>
+          <t>8,57e-04</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -11380,28 +11380,28 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>3,20</t>
+          <t>18,15</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>21,87</t>
         </is>
       </c>
       <c r="R126" t="inlineStr"/>
@@ -11410,7 +11410,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -11435,17 +11435,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>1,95e-03</t>
+          <t>4,47e-04</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -11465,28 +11465,28 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>18,15</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>21,87</t>
         </is>
       </c>
       <c r="R127" t="inlineStr"/>
@@ -11495,7 +11495,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -11520,17 +11520,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>1,94e-03</t>
+          <t>2,19e-04</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -11550,28 +11550,28 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>18,15</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>21,87</t>
         </is>
       </c>
       <c r="R128" t="inlineStr"/>
@@ -11580,7 +11580,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -11605,17 +11605,17 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>1,95e-03</t>
+          <t>2,46e-05</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -11635,28 +11635,28 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>18,16</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>21,88</t>
         </is>
       </c>
       <c r="R129" t="inlineStr"/>
@@ -11665,7 +11665,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -11690,17 +11690,17 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2,01e-03</t>
+          <t>9,87e-06</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -11720,49 +11720,49 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>18,16</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>21,88</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>81,78</t>
+          <t>447,49</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -11787,12 +11787,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -11837,12 +11837,12 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>18,03</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>22,09</t>
         </is>
       </c>
       <c r="R131" t="inlineStr"/>
@@ -11851,7 +11851,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -11876,17 +11876,17 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2,46e-05</t>
+          <t>1,55e-03</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -11906,28 +11906,28 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>18,02</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>1,70</t>
+          <t>22,09</t>
         </is>
       </c>
       <c r="R132" t="inlineStr"/>
@@ -11936,7 +11936,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -11961,17 +11961,17 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>1,74e-05</t>
+          <t>9,96e-04</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -11991,28 +11991,28 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>18,02</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>22,09</t>
         </is>
       </c>
       <c r="R133" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -12046,17 +12046,17 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
           <t>0,42</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>1,74e-05</t>
+          <t>5,76e-04</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -12076,28 +12076,28 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>18,01</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>22,09</t>
         </is>
       </c>
       <c r="R134" t="inlineStr"/>
@@ -12106,7 +12106,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0,40</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>1,77e-05</t>
+          <t>3,49e-04</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -12161,28 +12161,28 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>18,01</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>22,09</t>
         </is>
       </c>
       <c r="R135" t="inlineStr"/>
@@ -12191,7 +12191,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -12216,17 +12216,17 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>1,79e-05</t>
+          <t>2,05e-04</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -12246,17 +12246,17 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -12266,29 +12266,29 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>18,01</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>11,46</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>58,18</t>
+          <t>720,42</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -12313,12 +12313,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -12358,17 +12358,17 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>20,23</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>24,41</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
@@ -12377,7 +12377,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -12402,17 +12402,17 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>3,47e-03</t>
+          <t>1,85e-03</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -12432,28 +12432,28 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>20,20</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>24,39</t>
         </is>
       </c>
       <c r="R138" t="inlineStr"/>
@@ -12462,7 +12462,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -12487,17 +12487,17 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>3,48e-03</t>
+          <t>1,13e-03</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -12517,28 +12517,28 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>20,20</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>24,39</t>
         </is>
       </c>
       <c r="R139" t="inlineStr"/>
@@ -12547,7 +12547,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -12572,17 +12572,17 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>3,52e-03</t>
+          <t>6,22e-04</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -12602,28 +12602,28 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>20,20</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>24,40</t>
         </is>
       </c>
       <c r="R140" t="inlineStr"/>
@@ -12632,7 +12632,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -12657,17 +12657,17 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>3,43e-03</t>
+          <t>3,12e-04</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -12687,28 +12687,28 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>20,20</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>24,40</t>
         </is>
       </c>
       <c r="R141" t="inlineStr"/>
@@ -12717,7 +12717,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -12742,17 +12742,17 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>3,43e-03</t>
+          <t>1,23e-04</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -12772,7 +12772,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -12782,39 +12782,39 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>20,21</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>24,40</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>68,36</t>
+          <t>444,53</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -12839,12 +12839,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -12884,17 +12884,17 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>16,05</t>
+          <t>15,37</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>13,77</t>
+          <t>42,33</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>16,32</t>
+          <t>52,32</t>
         </is>
       </c>
       <c r="R143" t="inlineStr"/>
@@ -12903,7 +12903,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -12928,17 +12928,17 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0,90</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>1,15e-01</t>
+          <t>2,41e-03</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -12958,28 +12958,28 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>12,27</t>
+          <t>42,23</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>15,40</t>
+          <t>52,27</t>
         </is>
       </c>
       <c r="R144" t="inlineStr"/>
@@ -12988,7 +12988,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -13013,17 +13013,17 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,90</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>1,24e-01</t>
+          <t>1,70e-03</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -13043,28 +13043,28 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>12,45</t>
+          <t>42,25</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>15,67</t>
+          <t>52,28</t>
         </is>
       </c>
       <c r="R145" t="inlineStr"/>
@@ -13073,7 +13073,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -13103,12 +13103,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>1,31e-01</t>
+          <t>9,77e-04</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -13128,28 +13128,28 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>12,64</t>
+          <t>42,27</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>15,90</t>
+          <t>52,29</t>
         </is>
       </c>
       <c r="R146" t="inlineStr"/>
@@ -13158,7 +13158,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -13183,17 +13183,17 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>1,29e-01</t>
+          <t>5,47e-04</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -13213,28 +13213,28 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>12,87</t>
+          <t>42,28</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>16,23</t>
+          <t>52,30</t>
         </is>
       </c>
       <c r="R147" t="inlineStr"/>
@@ -13243,7 +13243,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -13268,17 +13268,17 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>1,28e-01</t>
+          <t>3,04e-04</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -13298,49 +13298,49 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>16,05</t>
+          <t>15,37</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>12,95</t>
+          <t>42,30</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>16,32</t>
+          <t>52,30</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>80,68</t>
+          <t>275,14</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -13365,12 +13365,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -13415,12 +13415,12 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>20,93</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>25,31</t>
         </is>
       </c>
       <c r="R149" t="inlineStr"/>
@@ -13429,7 +13429,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -13454,17 +13454,17 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>1,16e-04</t>
+          <t>3,92e-03</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -13484,28 +13484,28 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>20,64</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>25,16</t>
         </is>
       </c>
       <c r="R150" t="inlineStr"/>
@@ -13514,7 +13514,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -13539,17 +13539,17 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>7,31e-05</t>
+          <t>1,94e-03</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -13569,28 +13569,28 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>20,63</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>5,30</t>
+          <t>25,15</t>
         </is>
       </c>
       <c r="R151" t="inlineStr"/>
@@ -13599,7 +13599,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -13624,17 +13624,17 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>5,86e-05</t>
+          <t>1,22e-03</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -13654,28 +13654,28 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
-          <t>4,60</t>
+          <t>20,61</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>25,14</t>
         </is>
       </c>
       <c r="R152" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -13709,17 +13709,17 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>4,35e-05</t>
+          <t>4,78e-04</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -13739,28 +13739,28 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>20,59</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>25,13</t>
         </is>
       </c>
       <c r="R153" t="inlineStr"/>
@@ -13769,7 +13769,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -13794,17 +13794,17 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2,91e-05</t>
+          <t>3,51e-04</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -13824,17 +13824,17 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -13844,29 +13844,29 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>20,59</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>25,13</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>18,19</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>45,57</t>
+          <t>205,94</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -13891,12 +13891,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>8,13</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -13936,17 +13936,17 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>19,14</t>
+          <t>19,26</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>14,59</t>
+          <t>46,17</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>17,47</t>
+          <t>56,53</t>
         </is>
       </c>
       <c r="R155" t="inlineStr"/>
@@ -13955,7 +13955,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -13980,17 +13980,17 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>1,36e-01</t>
+          <t>2,74e-03</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -14010,28 +14010,28 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>12,96</t>
+          <t>45,97</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>16,38</t>
+          <t>56,45</t>
         </is>
       </c>
       <c r="R156" t="inlineStr"/>
@@ -14040,7 +14040,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -14065,17 +14065,17 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>1,39e-01</t>
+          <t>1,79e-03</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -14095,28 +14095,28 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>45,99</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>16,41</t>
+          <t>56,45</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -14125,7 +14125,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -14150,17 +14150,17 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>1,45e-01</t>
+          <t>1,07e-03</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -14180,28 +14180,28 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
-          <t>13,12</t>
+          <t>46,01</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>16,47</t>
+          <t>56,46</t>
         </is>
       </c>
       <c r="R158" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -14240,12 +14240,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>1,48e-01</t>
+          <t>7,03e-04</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -14265,28 +14265,28 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
         <is>
-          <t>13,15</t>
+          <t>46,02</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>16,51</t>
+          <t>56,47</t>
         </is>
       </c>
       <c r="R159" t="inlineStr"/>
@@ -14295,7 +14295,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -14320,72 +14320,2176 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>4,56e-04</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>19,26</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>46,03</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>56,47</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>0,30</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>239,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3,21</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>0,00e+00</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>45,63</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>73,63</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>107,75</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>1 / 5</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>5,70e-02</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>-7,44</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>-9,74</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>-6,4</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>70,75</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>106,31</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2 / 5</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0,60</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>8,80e-02</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>-15,44</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>-16,16</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>-9,95</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>70,03</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>105,81</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>3 / 5</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>8,18e-02</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>-19,84</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>-19,12</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>-10,36</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>69,91</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>105,55</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>4 / 5</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>7,96e-02</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>-26,29</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>-23,88</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>-12,13</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>69,70</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>105,13</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>7,53e-02</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>-28,99</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>-25,69</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>-12,55</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>45,63</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>69,68</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>104,98</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>5,37</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>152,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>0,00e+00</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>43,22</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>76,48</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>117,16</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>1 / 5</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>3,11e-02</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>-8,61</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>-3,74</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>-4,9</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>74,37</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>116,25</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2 / 5</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
           <t>1,04</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>1,48e-01</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>-5,54</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>4,57</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>-4,58</t>
-        </is>
-      </c>
-      <c r="O160" t="inlineStr">
-        <is>
-          <t>19,14</t>
-        </is>
-      </c>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>13,17</t>
-        </is>
-      </c>
-      <c r="Q160" t="inlineStr">
-        <is>
-          <t>16,57</t>
-        </is>
-      </c>
-      <c r="R160" t="inlineStr">
-        <is>
-          <t>9,68</t>
-        </is>
-      </c>
-      <c r="S160" t="inlineStr">
-        <is>
-          <t>68,83</t>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>3,85e-02</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>-19,8</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>-5,19</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>-7,55</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>73,67</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>115,74</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>3 / 5</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>3,97e-02</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>-28,85</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>-6,76</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>-9,81</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>73,21</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>115,33</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>4 / 5</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>3,94e-02</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>-31,99</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>-7,36</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>-11,13</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>73,06</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>115,18</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>3,75e-02</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>-34,06</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>-7,77</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>-11,25</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>43,22</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>73,01</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>115,09</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>4,53</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>168,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>7,31</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>7,12</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>0,00e+00</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>81,00</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>116,12</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>172,71</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1 / 5</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>2,70e-01</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>-50,62</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>-14,69</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>109,06</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>168,61</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2 / 5</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0,40</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>4,30e-01</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>-201,59</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>-19,65</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>-81,31</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>109,10</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>164,59</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>3 / 5</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0,60</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>4,41e-01</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>-207,36</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>-19,02</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>-81,92</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>109,12</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>164,53</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>4 / 5</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>4,49e-01</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>-212,01</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>-18,45</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>-82,49</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>109,20</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>164,48</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0,90</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>4,70e-01</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>-224,65</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>-16,68</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>-85,02</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>81,00</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>109,41</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>164,32</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>5,78</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>135,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>6,81</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>6,57</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>0,00e+00</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>85,86</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>124,78</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>167,56</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>1 / 5</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0,90</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>3,80e-01</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>-36,07</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>-11,72</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>-13,72</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>117,46</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>163,75</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2 / 5</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>3,95e-01</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>-62,02</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>-15,83</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>-18,49</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>116,26</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>162,61</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>3 / 5</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>3,41e-01</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>-84,27</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>-20,55</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>-23,83</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>115,39</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>161,66</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>4 / 5</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>3,29e-01</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>-93,72</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>-22,5</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>-25,36</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>115,12</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>161,32</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>2,97e-01</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>-108,63</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>-26,07</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>-28,65</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>85,86</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>114,81</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>160,79</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>7,99</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>133,71</t>
         </is>
       </c>
     </row>
